--- a/CBLHJB05/CBLHJB05 IPO.xlsx
+++ b/CBLHJB05/CBLHJB05 IPO.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAWI19\CBLHJB05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69586062-4BF6-48A3-976D-BE587E458502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47E5EC-3558-4788-8B95-F12B87B4F035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="1695" windowWidth="15375" windowHeight="7875" xr2:uid="{C44F7549-E86D-4E3B-B41E-4CA174E0BEEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C44F7549-E86D-4E3B-B41E-4CA174E0BEEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="VAL_POP_TYPE">Sheet1!$H$3:$H$8</definedName>
+    <definedName name="VAL_STATES">Sheet1!$E$3:$E$8</definedName>
+    <definedName name="VAL_TEAM">Sheet1!$J$3:$J$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>I-LNAME</t>
   </si>
@@ -153,13 +180,55 @@
   </si>
   <si>
     <t>ERR-SW</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>NE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +236,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -256,13 +337,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -271,23 +359,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,20 +686,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3738D6A-8517-4BBC-BFB3-6E8A8C77C036}">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -627,59 +712,59 @@
     <col min="22" max="23" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="8" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" s="2"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="10"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -712,217 +797,424 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AF2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AG2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AH2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J3" s="1"/>
-      <c r="K3" s="10"/>
-      <c r="Y3" s="1"/>
-      <c r="AH3" s="1"/>
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="15">
+        <v>99999</v>
+      </c>
+      <c r="G3" s="15">
+        <v>9999</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>99</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">_xlfn.SWITCH(E3,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="M3">
+        <f>L3 * (24 * I3)</f>
+        <v>118.80000000000001</v>
+      </c>
+      <c r="N3">
+        <f>(18.71 * I3) + M3</f>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="O3">
+        <f>IF(H3 = 1, I3,0)</f>
+        <v>99</v>
+      </c>
+      <c r="P3">
+        <f>IF(H3 = 2, I3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>IF(H3 = 3, I3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>IF(H3 = 4, I3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>IF(H3 = 5, I3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>IF(H3 = 6, I3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>IF(J3 = "A", N3,0)</f>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="V3">
+        <f>IF(J3 = "B", N3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>IF(J3 = "C", N3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>IF(J3 = "D", N3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>IF(J3 = "E", N3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1" t="str" cm="1">
+        <f t="array" ref="AA3:AA8">IF(ISBLANK(A3),"LAST NAME REQUIRED",IF(ISBLANK(B3),"FIRST NAME REQUIRED",IF(ISBLANK(C3),"ADDRESS REQUIRED",IF(ISBLANK(D3),"CITY REQUIRED",IF(NOT(E3=VAL_STATES),"STATES MUST BE IA, IL, MI, MO, NE, OR WI",IF(NOT(ISNUMBER(_xlfn.CONCAT(F3,G3))),"ZIP CODE MUST BE NUMERIC",IF(ISNUMBER(H3),IF(H3=VAL_POP_TYPE,IF(ISNUMBER(I3),IF(I3&lt;1,"MINIMUM OF 1 CASE",IF(J3=VAL_TEAM,"","TEAM MUST BE A, B, C, D, OR E")),"POP TYPE MUST BE 1-6"),"POP TYPE MUST BE NUMERIC"))))))))</f>
+        <v>ZIP CODE MUST BE NUMERIC</v>
+      </c>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J4" s="1"/>
-      <c r="K4" s="10"/>
-      <c r="Y4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="O4">
+        <f>IF(H4 = 1, O3+I4, O3)</f>
+        <v>99</v>
+      </c>
+      <c r="P4">
+        <f>IF(I4 = 2, P3+I4, P3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>IF(J4 = 3, Q3+I4, Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>IF(K4 = 4, R3+I4, R3)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>IF(L4 = 5, S3+I4, S3)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>IF(M4 = 6, T3+I4, T3)</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>IF(J4 = "A", U3+N4,U3)</f>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="V4">
+        <f>IF(J4 = "B", V3+N4,V3)</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>IF(J4 = "C", W3+N4,W3)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>IF(J4 = "D", X3+N4,X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>IF(J4 = "E", Y3+N4,Y3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J5" s="1"/>
-      <c r="K5" s="10"/>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="14">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="5"/>
       <c r="Y5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="AA5" s="1" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
       <c r="AJ5" s="1"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J6" s="1"/>
-      <c r="K6" s="10"/>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="14">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="Y6" s="1"/>
-      <c r="AH6" s="1"/>
+      <c r="AA6" s="1" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
       <c r="AJ6" s="1"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J7" s="1"/>
-      <c r="K7" s="10"/>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="14">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="5"/>
       <c r="Y7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="AA7" s="1" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="14">
+        <v>6</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="5"/>
       <c r="Y8" s="1"/>
-      <c r="AH8" s="1"/>
+      <c r="AA8" s="1" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="5"/>
       <c r="Y9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="AA9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J10" s="1"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="5"/>
       <c r="Y10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="AA10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J11" s="1"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="5"/>
       <c r="Y11" s="1"/>
-      <c r="AH11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="5"/>
+      <c r="S12" s="16" t="str" cm="1">
+        <f t="array" ref="S12">_xlfn.SWITCH(E3,"WI","","IA","","IL","","MI","","MO","","NE","","STATES MUST BE IA, IL, MI, MO, NE, OR WI")</f>
+        <v/>
+      </c>
       <c r="Y12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="AA12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="5"/>
       <c r="Y13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AA13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J14" s="1"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="5"/>
       <c r="Y14" s="1"/>
-      <c r="AH14" s="1"/>
+      <c r="AA14" s="1"/>
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J15" s="1"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="5"/>
       <c r="Y15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="AA15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J16" s="1"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="5"/>
       <c r="Y16" s="1"/>
-      <c r="AH16" s="1"/>
+      <c r="AA16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="10:36" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="5"/>
       <c r="Y17" s="1"/>
-      <c r="AH17" s="1"/>
+      <c r="AA17" s="1"/>
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="10:36" x14ac:dyDescent="0.25">
       <c r="J18" s="1"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="5"/>
+      <c r="U18" t="str" cm="1">
+        <f t="array" ref="U18:U23">IF(ISBLANK(A3),"LAST NAME REQUIRED",IF(ISBLANK(B3),"FIRST NAME REQUIRED",IF(ISBLANK(C3),"ADDRESS REQUIRED",IF(ISBLANK(D3),"CITY REQUIRED",IF(NOT(E3=VAL_STATES),"STATES MUST BE IA, IL, MI, MO, NE, OR WI","FALSE")))))</f>
+        <v>FALSE</v>
+      </c>
       <c r="Y18" s="1"/>
-      <c r="AH18" s="1"/>
+      <c r="AA18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="10:36" x14ac:dyDescent="0.25">
       <c r="J19" s="1"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="5"/>
+      <c r="U19" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
       <c r="Y19" s="1"/>
-      <c r="AH19" s="1"/>
+      <c r="AA19" s="1"/>
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="10:36" x14ac:dyDescent="0.25">
       <c r="J20" s="1"/>
-      <c r="K20" s="10"/>
-      <c r="Z20" s="7"/>
-      <c r="AH20" s="1"/>
+      <c r="K20" s="5"/>
+      <c r="U20" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="4"/>
       <c r="AJ20" s="1"/>
+    </row>
+    <row r="21" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="U21" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
+    </row>
+    <row r="22" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="U22" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
+    </row>
+    <row r="23" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="U23" t="str">
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="L1:Y1"/>
-    <mergeCell ref="Z1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CBLHJB05/CBLHJB05 IPO.xlsx
+++ b/CBLHJB05/CBLHJB05 IPO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAWI19\CBLHJB05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47E5EC-3558-4788-8B95-F12B87B4F035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E297A-C9A2-41FC-9FC6-7D5BAC4EC0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C44F7549-E86D-4E3B-B41E-4CA174E0BEEA}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="VAL_POP_TYPE">Sheet1!$H$3:$H$8</definedName>
+    <definedName name="VAL_POP_TYPE">Sheet1!$G$3:$G$8</definedName>
     <definedName name="VAL_STATES">Sheet1!$E$3:$E$8</definedName>
-    <definedName name="VAL_TEAM">Sheet1!$J$3:$J$7</definedName>
+    <definedName name="VAL_TEAM">Sheet1!$I$3:$I$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>I-LNAME</t>
   </si>
@@ -77,12 +77,6 @@
     <t>I-STATE</t>
   </si>
   <si>
-    <t>I-ZIP1</t>
-  </si>
-  <si>
-    <t>I-ZIP2</t>
-  </si>
-  <si>
     <t>I-POP-TYPE</t>
   </si>
   <si>
@@ -194,31 +188,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>NE</t>
+    <t>I-ZIP</t>
   </si>
 </sst>
 </file>
@@ -228,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,25 +206,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -337,9 +295,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -353,6 +310,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,12 +327,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3738D6A-8517-4BBC-BFB3-6E8A8C77C036}">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,76 +653,77 @@
     <col min="1" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="10"/>
-    </row>
-    <row r="2" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="12"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -783,438 +740,411 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" s="10">
+        <v>999999999</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>99</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="15">
-        <v>99999</v>
-      </c>
-      <c r="G3" s="15">
-        <v>9999</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="J3" t="str">
+        <f>IF(Z3="","N","Y")</f>
+        <v>N</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3">_xlfn.SWITCH(E3,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="16">
+        <f>K3 * (24 * H3)</f>
+        <v>118.80000000000001</v>
+      </c>
+      <c r="M3">
+        <f>(18.71 * H3) + L3</f>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="N3">
+        <f>IF(G3 = 1, H3,0)</f>
+        <v>99</v>
+      </c>
+      <c r="O3">
+        <f>IF(G3 = 2, H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(G3 = 3, H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>IF(G3 = 4, H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>IF(G3 = 5, H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>IF(G3 = 6, H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>IF(I3 = "A", M3,0)</f>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U3">
+        <f>IF(I3 = "B", M3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>IF(I3 = "C", M3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>IF(I3 = "D", M3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>IF(I3 = "E", M3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4" t="str">
+        <f>IF(J3="Y",CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3),"")</f>
+        <v/>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <f>IF(ISBLANK(A3),"LAST NAME REQUIRED",IF(ISBLANK(B3),"FIRST NAME REQUIRED",IF(ISBLANK(C3),"ADDRESS REQUIRED",IF(ISBLANK(D3),"CITY REQUIRED",IF(NOT(OR(E3="IA",E3="IL",E3="MI",E3="MO",E3="NE",E3="WI")),"STATES MUST BE IA, IL, MI, MO, NE, OR WI",IF(NOT(ISNUMBER(F3)),"ZIP CODE MUST BE NUMERIC",IF(NOT(ISNUMBER(G3)),"POP TYPE MUST BE NUMERIC",IF(NOT(OR(G3=1,G3=2,G3=3,G3=4,G3=5,G3=6)),"POP TYPE MUST BE 1-6",IF(NOT(ISNUMBER(H3)),"CASES MUST BE NUMERIC",IF(H3&lt;1,"MINIMUM OF 1 CASE",IF(OR(I3="A",I3="B",I3="C",I3="D",I3="E"),"","TEAM MUST BE A, B, C, D, OR E")))))))))))</f>
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <f>A3</f>
+        <v>XXXXXXXXXXXXXXX</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>B3</f>
+        <v>XXXXXXXXXXXXXXX</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>D3</f>
+        <v>XXXXXXXXXX</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>E3</f>
+        <v>WI</v>
+      </c>
+      <c r="AE3" s="10">
+        <f>F3</f>
+        <v>999999999</v>
+      </c>
+      <c r="AF3" s="10">
+        <f t="shared" ref="AF3:AG3" si="0">G3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="14">
+      <c r="AG3" s="10">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" cm="1">
-        <f t="array" ref="L3">_xlfn.SWITCH(E3,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="M3">
-        <f>L3 * (24 * I3)</f>
+      <c r="AH3" s="16">
+        <f>L3</f>
         <v>118.80000000000001</v>
       </c>
-      <c r="N3">
-        <f>(18.71 * I3) + M3</f>
+      <c r="AI3" s="1">
+        <f>M3</f>
         <v>1971.0900000000001</v>
       </c>
-      <c r="O3">
-        <f>IF(H3 = 1, I3,0)</f>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="G4" s="9"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="N4">
+        <f>IF(G4 = 1, N3+H4, N3)</f>
         <v>99</v>
       </c>
-      <c r="P3">
-        <f>IF(H3 = 2, I3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>IF(H3 = 3, I3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f>IF(H3 = 4, I3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>IF(H3 = 5, I3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>IF(H3 = 6, I3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f>IF(J3 = "A", N3,0)</f>
+      <c r="O4">
+        <f>IF(H4 = 2, O3+H4, O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>IF(I4 = 3, P3+H4, P3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>IF(J4 = 4, Q3+H4, Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>IF(K4 = 5, R3+H4, R3)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>IF(L4 = 6, S3+H4, S3)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>IF(I4 = "A", T3+M4,T3)</f>
         <v>1971.0900000000001</v>
       </c>
-      <c r="V3">
-        <f>IF(J3 = "B", N3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f>IF(J3 = "C", N3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f>IF(J3 = "D", N3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f>IF(J3 = "E", N3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1" t="str" cm="1">
-        <f t="array" ref="AA3:AA8">IF(ISBLANK(A3),"LAST NAME REQUIRED",IF(ISBLANK(B3),"FIRST NAME REQUIRED",IF(ISBLANK(C3),"ADDRESS REQUIRED",IF(ISBLANK(D3),"CITY REQUIRED",IF(NOT(E3=VAL_STATES),"STATES MUST BE IA, IL, MI, MO, NE, OR WI",IF(NOT(ISNUMBER(_xlfn.CONCAT(F3,G3))),"ZIP CODE MUST BE NUMERIC",IF(ISNUMBER(H3),IF(H3=VAL_POP_TYPE,IF(ISNUMBER(I3),IF(I3&lt;1,"MINIMUM OF 1 CASE",IF(J3=VAL_TEAM,"","TEAM MUST BE A, B, C, D, OR E")),"POP TYPE MUST BE 1-6"),"POP TYPE MUST BE NUMERIC"))))))))</f>
-        <v>ZIP CODE MUST BE NUMERIC</v>
-      </c>
-      <c r="AJ3" s="1"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="O4">
-        <f>IF(H4 = 1, O3+I4, O3)</f>
-        <v>99</v>
-      </c>
-      <c r="P4">
-        <f>IF(I4 = 2, P3+I4, P3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>IF(J4 = 3, Q3+I4, Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f>IF(K4 = 4, R3+I4, R3)</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>IF(L4 = 5, S3+I4, S3)</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>IF(M4 = 6, T3+I4, T3)</f>
-        <v>0</v>
-      </c>
       <c r="U4">
-        <f>IF(J4 = "A", U3+N4,U3)</f>
-        <v>1971.0900000000001</v>
+        <f>IF(I4 = "B", U3+M4,U3)</f>
+        <v>0</v>
       </c>
       <c r="V4">
-        <f>IF(J4 = "B", V3+N4,V3)</f>
+        <f>IF(I4 = "C", V3+M4,V3)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>IF(J4 = "C", W3+N4,W3)</f>
+        <f>IF(I4 = "D", W3+M4,W3)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>IF(J4 = "D", X3+N4,X3)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f>IF(J4 = "E", Y3+N4,Y3)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-      <c r="AJ4" s="1"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="14">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="Y5" s="1"/>
-      <c r="AA5" s="1" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-      <c r="AJ5" s="1"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="14">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="Y6" s="1"/>
-      <c r="AA6" s="1" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-      <c r="AJ6" s="1"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="14">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="Y7" s="1"/>
-      <c r="AA7" s="1" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-      <c r="AJ7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="14">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
-      <c r="Y8" s="1"/>
-      <c r="AA8" s="1" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-      <c r="AJ8" s="1"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="Y9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AJ9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
-      <c r="Y10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AJ10" s="1"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="Y11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AJ11" s="1"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="S12" s="16" t="str" cm="1">
-        <f t="array" ref="S12">_xlfn.SWITCH(E3,"WI","","IA","","IL","","MI","","MO","","NE","","STATES MUST BE IA, IL, MI, MO, NE, OR WI")</f>
+        <f>IF(I4 = "E", X3+M4,X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="G5" s="9"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="X5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="G6" s="9"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+      <c r="X6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="X7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="G8" s="9"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5"/>
+      <c r="X8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="X9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="5"/>
+      <c r="X10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="5"/>
+      <c r="X11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="5"/>
+      <c r="R12" s="5" t="str" cm="1">
+        <f t="array" ref="R12">_xlfn.SWITCH(E3,"WI","","IA","","IL","","MI","","MO","","NE","","STATES MUST BE IA, IL, MI, MO, NE, OR WI")</f>
         <v/>
       </c>
-      <c r="Y12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AJ12" s="1"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="Y13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AJ13" s="1"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="Y14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AJ14" s="1"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
-      <c r="Y15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AJ15" s="1"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
-      <c r="Y16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AJ16" s="1"/>
-    </row>
-    <row r="17" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
-      <c r="Y17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AJ17" s="1"/>
-    </row>
-    <row r="18" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
-      <c r="U18" t="str" cm="1">
-        <f t="array" ref="U18:U23">IF(ISBLANK(A3),"LAST NAME REQUIRED",IF(ISBLANK(B3),"FIRST NAME REQUIRED",IF(ISBLANK(C3),"ADDRESS REQUIRED",IF(ISBLANK(D3),"CITY REQUIRED",IF(NOT(E3=VAL_STATES),"STATES MUST BE IA, IL, MI, MO, NE, OR WI","FALSE")))))</f>
-        <v>FALSE</v>
-      </c>
-      <c r="Y18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AJ18" s="1"/>
-    </row>
-    <row r="19" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="U19" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-      <c r="Y19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AJ19" s="1"/>
-    </row>
-    <row r="20" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
-      <c r="U20" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="4"/>
-      <c r="AJ20" s="1"/>
-    </row>
-    <row r="21" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="U21" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-    </row>
-    <row r="22" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="U22" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
-    </row>
-    <row r="23" spans="10:36" x14ac:dyDescent="0.25">
-      <c r="U23" t="str">
-        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
-      </c>
+      <c r="X12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="5"/>
+      <c r="X13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="5"/>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="X15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="5"/>
+      <c r="X16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="5"/>
+      <c r="X17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="5"/>
+      <c r="X18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="X19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="5"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="4"/>
+      <c r="AI20" s="1"/>
+    </row>
+    <row r="21" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="Y21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L1:Y1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:X1"/>
+    <mergeCell ref="AA1:AI1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CBLHJB05/CBLHJB05 IPO.xlsx
+++ b/CBLHJB05/CBLHJB05 IPO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAWI19\CBLHJB05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E297A-C9A2-41FC-9FC6-7D5BAC4EC0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE1F97F-01AE-4F8D-A006-7E04D81FB30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C44F7549-E86D-4E3B-B41E-4CA174E0BEEA}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{C44F7549-E86D-4E3B-B41E-4CA174E0BEEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="135">
   <si>
     <t>I-LNAME</t>
   </si>
@@ -189,16 +189,301 @@
   </si>
   <si>
     <t>I-ZIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROAH          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMELL          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESTER         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOCULA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANCOCK        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOO            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRKNER        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAMS          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEFFERSON      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADISON        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONROE         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACKSON        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN BUREN      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARRISON       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYLER          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLK           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROY            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEE            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHN           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCOOBY         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUSTIN         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEORGE         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOMAS         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMES          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHN QUINCY    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREW         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILLIAM HENRY  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMES KNOX     </t>
+  </si>
+  <si>
+    <t>54321  DAVIS ST</t>
+  </si>
+  <si>
+    <t>24681  SHORT ST</t>
+  </si>
+  <si>
+    <t>42069  CREEP ST</t>
+  </si>
+  <si>
+    <t>5201  SUCKER ST</t>
+  </si>
+  <si>
+    <t>68505  BIG BLVD</t>
+  </si>
+  <si>
+    <t>85     SPOOK RD</t>
+  </si>
+  <si>
+    <t>12345 BIGBRO RD</t>
+  </si>
+  <si>
+    <t>123   COUNTY RD</t>
+  </si>
+  <si>
+    <t>12 EXECUTIVE DR</t>
+  </si>
+  <si>
+    <t>85221  RIDGE RD</t>
+  </si>
+  <si>
+    <t>68505  BERRY ST</t>
+  </si>
+  <si>
+    <t>52     LILLY LN</t>
+  </si>
+  <si>
+    <t>42069   HIGH ST</t>
+  </si>
+  <si>
+    <t>24681 N WEST ST</t>
+  </si>
+  <si>
+    <t>54 ARKANSAS AVE</t>
+  </si>
+  <si>
+    <t>525 SENATOR  ST</t>
+  </si>
+  <si>
+    <t>247 INDIANA AVE</t>
+  </si>
+  <si>
+    <t>1450  IDAHO  LN</t>
+  </si>
+  <si>
+    <t>1795  IOWA   ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORIS    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANCASTER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEORIA    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>SPOOKVILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINCOLN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLSVILE </t>
+  </si>
+  <si>
+    <t>MEDIAPOLIS</t>
+  </si>
+  <si>
+    <t>BLOOMFIELD</t>
+  </si>
+  <si>
+    <t>DES MOINES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANSON   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHICAGO   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANSING   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMAHA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTTUMWA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST LOUIS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADISON   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETROIT   </t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>AEIOUANDY</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>GRAND TOTALS:</t>
+  </si>
+  <si>
+    <t>COKE</t>
+  </si>
+  <si>
+    <t>DIET COKE</t>
+  </si>
+  <si>
+    <t>MELLO YELLO</t>
+  </si>
+  <si>
+    <t>CHERRY COKE</t>
+  </si>
+  <si>
+    <t>DIET CHERRY COKE</t>
+  </si>
+  <si>
+    <t>SPRITE</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
+  </si>
+  <si>
+    <t>TEAM TOTALS:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,15 +492,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -294,42 +591,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -642,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3738D6A-8517-4BBC-BFB3-6E8A8C77C036}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" topLeftCell="AC10" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,12 +980,11 @@
     <col min="1" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -667,170 +993,194 @@
     <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="81.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="11" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="14" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="13" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="12"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="32"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="18" t="s">
         <v>32</v>
       </c>
+      <c r="AJ2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="18"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -846,36 +1196,36 @@
       <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>999999999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J3" t="str">
-        <f>IF(Z3="","N","Y")</f>
+        <f t="shared" ref="J3:J26" si="0">IF(Z3="","N","Y")</f>
         <v>N</v>
       </c>
       <c r="K3" cm="1">
-        <f t="array" ref="K3">_xlfn.SWITCH(E3,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0)</f>
+        <f t="array" ref="K3">IF(J3="N",_xlfn.SWITCH(E3,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
         <v>0.05</v>
       </c>
-      <c r="L3" s="16">
-        <f>K3 * (24 * H3)</f>
+      <c r="L3" s="6">
+        <f>IF(J3="N",(K3 * (24 * H3)),"")</f>
         <v>118.80000000000001</v>
       </c>
       <c r="M3">
-        <f>(18.71 * H3) + L3</f>
+        <f>IF(J3="N",(18.71 * H3) + L3,"")</f>
         <v>1971.0900000000001</v>
       </c>
       <c r="N3">
-        <f>IF(G3 = 1, H3,0)</f>
+        <f>IF(J3="N",IF(G3 = 1, H3,0),"")</f>
         <v>99</v>
       </c>
       <c r="O3">
@@ -898,253 +1248,3325 @@
         <f>IF(G3 = 6, H3,0)</f>
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="6">
         <f>IF(I3 = "A", M3,0)</f>
         <v>1971.0900000000001</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="6">
         <f>IF(I3 = "B", M3,0)</f>
         <v>0</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="6">
         <f>IF(I3 = "C", M3,0)</f>
         <v>0</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="6">
         <f>IF(I3 = "D", M3,0)</f>
         <v>0</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="6">
         <f>IF(I3 = "E", M3,0)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="4" t="str">
-        <f>IF(J3="Y",CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3),"")</f>
+      <c r="Y3" s="2" t="str">
+        <f t="shared" ref="Y3:Y14" si="1">IF(J3="Y",CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3),"")</f>
         <v/>
       </c>
       <c r="Z3" s="1" t="str">
-        <f>IF(ISBLANK(A3),"LAST NAME REQUIRED",IF(ISBLANK(B3),"FIRST NAME REQUIRED",IF(ISBLANK(C3),"ADDRESS REQUIRED",IF(ISBLANK(D3),"CITY REQUIRED",IF(NOT(OR(E3="IA",E3="IL",E3="MI",E3="MO",E3="NE",E3="WI")),"STATES MUST BE IA, IL, MI, MO, NE, OR WI",IF(NOT(ISNUMBER(F3)),"ZIP CODE MUST BE NUMERIC",IF(NOT(ISNUMBER(G3)),"POP TYPE MUST BE NUMERIC",IF(NOT(OR(G3=1,G3=2,G3=3,G3=4,G3=5,G3=6)),"POP TYPE MUST BE 1-6",IF(NOT(ISNUMBER(H3)),"CASES MUST BE NUMERIC",IF(H3&lt;1,"MINIMUM OF 1 CASE",IF(OR(I3="A",I3="B",I3="C",I3="D",I3="E"),"","TEAM MUST BE A, B, C, D, OR E")))))))))))</f>
+        <f>IF(LEN(TRIM(A3))=0,"LAST NAME REQUIRED",IF(LEN(TRIM(B3))=0,"FIRST NAME REQUIRED",IF(LEN(TRIM(C3))=0,"ADDRESS REQUIRED",IF(LEN(TRIM(D3))=0,"CITY REQUIRED",IF(NOT(OR(E3="IA",E3="IL",E3="MI",E3="MO",E3="NE",E3="WI")),"STATES MUST BE IA, IL, MI, MO, NE, OR WI",IF(NOT(ISNUMBER(F3)),"ZIP CODE MUST BE NUMERIC",IF(NOT(ISNUMBER(G3)),"POP TYPE MUST BE NUMERIC",IF(NOT(OR(G3=1,G3=2,G3=3,G3=4,G3=5,G3=6)),"POP TYPE MUST BE 1-6",IF(NOT(ISNUMBER(H3)),"CASES MUST BE NUMERIC",IF(H3&lt;1,"MINIMUM OF 1 CASE",IF(OR(I3="A",I3="B",I3="C",I3="D",I3="E"),"","TEAM MUST BE A, B, C, D, OR E")))))))))))</f>
         <v/>
       </c>
       <c r="AA3" t="str">
-        <f>A3</f>
+        <f>IF(J3="N",A3,"")</f>
         <v>XXXXXXXXXXXXXXX</v>
       </c>
       <c r="AB3" t="str">
-        <f>B3</f>
+        <f>IF(J3="N",B3,"")</f>
         <v>XXXXXXXXXXXXXXX</v>
       </c>
       <c r="AC3" t="str">
-        <f>D3</f>
+        <f>IF(J3="N",D3,"")</f>
         <v>XXXXXXXXXX</v>
       </c>
       <c r="AD3" t="str">
-        <f>E3</f>
+        <f>IF(J3="N",E3,"")</f>
         <v>WI</v>
       </c>
-      <c r="AE3" s="10">
-        <f>F3</f>
+      <c r="AE3" s="5">
+        <f>IF(J3="N",F3,"")</f>
         <v>999999999</v>
       </c>
-      <c r="AF3" s="10">
-        <f t="shared" ref="AF3:AG3" si="0">G3</f>
+      <c r="AF3" s="5" t="str" cm="1">
+        <f t="array" ref="AF3">IF(J3="N",_xlfn.SWITCH(G3,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>COKE</v>
+      </c>
+      <c r="AG3" s="5">
+        <f>IF(J3="N",H3,"")</f>
+        <v>99</v>
+      </c>
+      <c r="AH3" s="23">
+        <f>IF(J3="N",L3,"")</f>
+        <v>118.80000000000001</v>
+      </c>
+      <c r="AI3" s="25">
+        <f>IF(J3="N",M3,"")</f>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK3" s="14">
+        <f>N26</f>
+        <v>198</v>
+      </c>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN3" s="3">
+        <f>O26</f>
+        <v>69</v>
+      </c>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ3" s="1">
+        <f>P26</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4">
+        <v>525374321</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K4" t="str" cm="1">
+        <f t="array" ref="K4">IF(J4="N",_xlfn.SWITCH(E4,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f t="shared" ref="L4:L26" si="2">IF(J4="N",(K4 * (24 * H4)),"")</f>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M26" si="3">IF(J4="N",(18.71 * H4) + L4,"")</f>
+        <v/>
+      </c>
+      <c r="N4">
+        <f>IF(J4="N",IF(G4 = 1, N3+H4, N3),N3)</f>
         <v>99</v>
       </c>
-      <c r="AH3" s="16">
-        <f>L3</f>
+      <c r="O4">
+        <f>IF(J4="N",IF(G4 = 2, O3+H4, O3),O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>IF(J4="N",IF(G4 = 3, P3+H4, P3),P3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>IF(J4="N",IF(G4 = 4, Q3+H4, Q3),Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>IF(J4="N",IF(G4 = 5, R3+H4, R3),R3)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>IF(J4="N",IF(G4 = 6, S3+H4, S3),S3)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <f>IF(J4="N",IF(I4 = "A", T3+M4,T3),T3)</f>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U4" s="6">
+        <f>IF(J4="N",IF(I4 = "B", U3+M4,U3),U3)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <f>IF(J4="N",IF(I4 = "C", V3+M4,V3),V3)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <f>IF(J4="N",IF(I4 = "D", W3+M4,W3),W3)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <f>IF(J4="N",IF(I4 = "E", X3+M4,X3),X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">               ROY            54321  DAVIS STFLORIS    IA52537432141A</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f>IF(LEN(TRIM(A4))=0,"LAST NAME REQUIRED",IF(LEN(TRIM(B4))=0,"FIRST NAME REQUIRED",IF(LEN(TRIM(C4))=0,"ADDRESS REQUIRED",IF(LEN(TRIM(D4))=0,"CITY REQUIRED",IF(NOT(OR(E4="IA",E4="IL",E4="MI",E4="MO",E4="NE",E4="WI")),"STATES MUST BE IA, IL, MI, MO, NE, OR WI",IF(NOT(ISNUMBER(F4)),"ZIP CODE MUST BE NUMERIC",IF(NOT(ISNUMBER(G4)),"POP TYPE MUST BE NUMERIC",IF(NOT(OR(G4=1,G4=2,G4=3,G4=4,G4=5,G4=6)),"POP TYPE MUST BE 1-6",IF(NOT(ISNUMBER(H4)),"CASES MUST BE NUMERIC",IF(H4&lt;1,"MINIMUM OF 1 CASE",IF(OR(I4="A",I4="B",I4="C",I4="D",I4="E"),"","TEAM MUST BE A, B, C, D, OR E")))))))))))</f>
+        <v>LAST NAME REQUIRED</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" ref="AA4:AA26" si="4">IF(J4="N",A4,"")</f>
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" ref="AB4:AB26" si="5">IF(J4="N",B4,"")</f>
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" ref="AC4:AC26" si="6">IF(J4="N",D4,"")</f>
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" ref="AD4:AD26" si="7">IF(J4="N",E4,"")</f>
+        <v/>
+      </c>
+      <c r="AE4" s="5" t="str">
+        <f t="shared" ref="AE4:AE26" si="8">IF(J4="N",F4,"")</f>
+        <v/>
+      </c>
+      <c r="AF4" s="5" t="str" cm="1">
+        <f t="array" ref="AF4">IF(J4="N",_xlfn.SWITCH(G4,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG4" s="5" t="str">
+        <f t="shared" ref="AG4:AG26" si="9">IF(J4="N",H4,"")</f>
+        <v/>
+      </c>
+      <c r="AH4" s="23" t="str">
+        <f t="shared" ref="AH4:AH26" si="10">IF(J4="N",L4,"")</f>
+        <v/>
+      </c>
+      <c r="AI4" s="25" t="str">
+        <f t="shared" ref="AI4:AI26" si="11">IF(J4="N",M4,"")</f>
+        <v/>
+      </c>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5">
+        <v>635482468</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K5" t="str" cm="1">
+        <f t="array" ref="K5">IF(J5="N",_xlfn.SWITCH(E5,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N26" si="12">IF(J5="N",IF(G5 = 1, N4+H5, N4),N4)</f>
+        <v>99</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O26" si="13">IF(J5="N",IF(G5 = 2, O4+H5, O4),O4)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P26" si="14">IF(J5="N",IF(G5 = 3, P4+H5, P4),P4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q26" si="15">IF(J5="N",IF(G5 = 4, Q4+H5, Q4),Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R26" si="16">IF(J5="N",IF(G5 = 5, R4+H5, R4),R4)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S26" si="17">IF(J5="N",IF(G5 = 6, S4+H5, S4),S4)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" ref="T5:T26" si="18">IF(J5="N",IF(I5 = "A", T4+M5,T4),T4)</f>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" ref="U5:U26" si="19">IF(J5="N",IF(I5 = "B", U4+M5,U4),U4)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" ref="V5:V26" si="20">IF(J5="N",IF(I5 = "C", V4+M5,V4),V4)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" ref="W5:W26" si="21">IF(J5="N",IF(I5 = "D", W4+M5,W4),W4)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" ref="X5:X26" si="22">IF(J5="N",IF(I5 = "E", X4+M5,X4),X4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>FROAH                         24681  SHORT STLANCASTER MO63548246825D</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f t="shared" ref="Z5:Z17" si="23">IF(LEN(TRIM(A5))=0,"LAST NAME REQUIRED",IF(LEN(TRIM(B5))=0,"FIRST NAME REQUIRED",IF(LEN(TRIM(C5))=0,"ADDRESS REQUIRED",IF(LEN(TRIM(D5))=0,"CITY REQUIRED",IF(NOT(OR(E5="IA",E5="IL",E5="MI",E5="MO",E5="NE",E5="WI")),"STATES MUST BE IA, IL, MI, MO, NE, OR WI",IF(NOT(ISNUMBER(F5)),"ZIP CODE MUST BE NUMERIC",IF(NOT(ISNUMBER(G5)),"POP TYPE MUST BE NUMERIC",IF(NOT(OR(G5=1,G5=2,G5=3,G5=4,G5=5,G5=6)),"POP TYPE MUST BE 1-6",IF(NOT(ISNUMBER(H5)),"CASES MUST BE NUMERIC",IF(H5&lt;1,"MINIMUM OF 1 CASE",IF(OR(I5="A",I5="B",I5="C",I5="D",I5="E"),"","TEAM MUST BE A, B, C, D, OR E")))))))))))</f>
+        <v>FIRST NAME REQUIRED</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE5" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF5" s="5" t="str" cm="1">
+        <f t="array" ref="AF5">IF(J5="N",_xlfn.SWITCH(G5,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG5" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH5" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI5" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK5" s="3">
+        <f>Q26</f>
+        <v>24</v>
+      </c>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN5" s="3">
+        <f>R26</f>
+        <v>25</v>
+      </c>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ5" s="1">
+        <f>S26</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>616150101</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">IF(J6="N",_xlfn.SWITCH(E6,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L6" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N6">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>SMELL          LEE                           PEORIA    IL616150101610C</v>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>ADDRESS REQUIRED</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE6" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF6" s="5" t="str" cm="1">
+        <f t="array" ref="AF6">IF(J6="N",_xlfn.SWITCH(G6,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG6" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH6" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI6" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>123459999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7">IF(J7="N",_xlfn.SWITCH(E7,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N7">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LESTER         MO             42069  CREEP ST          WI12345999931E</v>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>CITY REQUIRED</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE7" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF7" s="5" t="str" cm="1">
+        <f t="array" ref="AF7">IF(J7="N",_xlfn.SWITCH(G7,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG7" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH7" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI7" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="1"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8">
+        <v>150013691</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K8" t="str" cm="1">
+        <f t="array" ref="K8">IF(J8="N",_xlfn.SWITCH(E8,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N8">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CHOCULA        COUNT          5201  SUCKER STSPOOKVILLEPN15001369153B</v>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>STATES MUST BE IA, IL, MI, MO, NE, OR WI</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE8" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF8" s="5" t="str" cm="1">
+        <f t="array" ref="AF8">IF(J8="N",_xlfn.SWITCH(G8,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG8" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH8" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI8" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="1"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9">IF(J9="N",_xlfn.SWITCH(E9,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N9">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>HANCOCK        JOHN           68505  BIG BLVDLINCOLN   NEAEIOUANDY34D</v>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>ZIP CODE MUST BE NUMERIC</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE9" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF9" s="5" t="str" cm="1">
+        <f t="array" ref="AF9">IF(J9="N",_xlfn.SWITCH(G9,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG9" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH9" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI9" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK9" s="15">
+        <f>T26</f>
+        <v>4367.49</v>
+      </c>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="1"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10">
+        <v>867530909</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10">IF(J10="N",_xlfn.SWITCH(E10,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N10">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DOO            SCOOBY         85     SPOOK RDCOOLSVILE MO867530909XX1E</v>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>POP TYPE MUST BE NUMERIC</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF10" s="5" t="str" cm="1">
+        <f t="array" ref="AF10">IF(J10="N",_xlfn.SWITCH(G10,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH10" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI10" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="1"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11">
+        <v>867530909</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">IF(J11="N",_xlfn.SWITCH(E11,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N11">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DOO            SCOOBY         85     SPOOK RDCOOLSVILE MO86753090971E</v>
+      </c>
+      <c r="Z11" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>POP TYPE MUST BE 1-6</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE11" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF11" s="5" t="str" cm="1">
+        <f t="array" ref="AF11">IF(J11="N",_xlfn.SWITCH(G11,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG11" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH11" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI11" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK11" s="15">
+        <f>U26</f>
+        <v>1362.99</v>
+      </c>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="1"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12">
+        <v>526371234</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" ref="K12">IF(J12="N",_xlfn.SWITCH(E12,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N12">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BIRKNER        JUSTIN         12345 BIGBRO RDMEDIAPOLISIA5263712341XXB</v>
+      </c>
+      <c r="Z12" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>CASES MUST BE NUMERIC</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE12" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF12" s="5" t="str" cm="1">
+        <f t="array" ref="AF12">IF(J12="N",_xlfn.SWITCH(G12,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG12" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH12" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI12" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="1"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13">
+        <v>526371234</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13">IF(J13="N",_xlfn.SWITCH(E13,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N13">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BIRKNER        JUSTIN         12345 BIGBRO RDMEDIAPOLISIA52637123410B</v>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>MINIMUM OF 1 CASE</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE13" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF13" s="5" t="str" cm="1">
+        <f t="array" ref="AF13">IF(J13="N",_xlfn.SWITCH(G13,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG13" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH13" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI13" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK13" s="15">
+        <f>V26</f>
+        <v>508.77000000000004</v>
+      </c>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="1"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14">
+        <v>525371234</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="K14" t="str" cm="1">
+        <f t="array" ref="K14">IF(J14="N",_xlfn.SWITCH(E14,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N14">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="18"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BIRKNER        HARRISON       123   COUNTY RDBLOOMFIELDIA52537123412F</v>
+      </c>
+      <c r="Z14" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>TEAM MUST BE A, B, C, D, OR E</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE14" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF14" s="5" t="str" cm="1">
+        <f t="array" ref="AF14">IF(J14="N",_xlfn.SWITCH(G14,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v/>
+      </c>
+      <c r="AG14" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH14" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI14" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="1"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>99</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">IF(J15="N",_xlfn.SWITCH(E15,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0.05</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="2"/>
         <v>118.80000000000001</v>
       </c>
-      <c r="AI3" s="1">
-        <f>M3</f>
+      <c r="M15">
+        <f t="shared" si="3"/>
         <v>1971.0900000000001</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="18"/>
+        <v>3942.1800000000003</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXXXXXXXXX</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="5"/>
+        <v>XXXXXXXXXXXXXXX</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="6"/>
+        <v>XXXXXXXXXX</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="7"/>
+        <v>WI</v>
+      </c>
+      <c r="AE15" s="5">
+        <f t="shared" si="8"/>
+        <v>999999999</v>
+      </c>
+      <c r="AF15" s="5" t="str" cm="1">
+        <f t="array" ref="AF15">IF(J15="N",_xlfn.SWITCH(G15,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>COKE</v>
+      </c>
+      <c r="AG15" s="5">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="AH15" s="23">
+        <f t="shared" si="10"/>
+        <v>118.80000000000001</v>
+      </c>
+      <c r="AI15" s="25">
+        <f t="shared" si="11"/>
+        <v>1971.0900000000001</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK15" s="15">
+        <f>26</f>
+        <v>26</v>
+      </c>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="1"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="5"/>
-      <c r="N4">
-        <f>IF(G4 = 1, N3+H4, N3)</f>
-        <v>99</v>
-      </c>
-      <c r="O4">
-        <f>IF(H4 = 2, O3+H4, O3)</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>IF(I4 = 3, P3+H4, P3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>IF(J4 = 4, Q3+H4, Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f>IF(K4 = 5, R3+H4, R3)</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>IF(L4 = 6, S3+H4, S3)</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>IF(I4 = "A", T3+M4,T3)</f>
-        <v>1971.0900000000001</v>
-      </c>
-      <c r="U4">
-        <f>IF(I4 = "B", U3+M4,U3)</f>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f>IF(I4 = "C", V3+M4,V3)</f>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f>IF(I4 = "D", W3+M4,W3)</f>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f>IF(I4 = "E", X3+M4,X3)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="1"/>
-      <c r="AI4" s="1"/>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16">
+        <v>741852963</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">IF(J16="N",_xlfn.SWITCH(E16,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0.05</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>995.5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="18"/>
+        <v>3942.1800000000003</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" si="19"/>
+        <v>995.5</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">WASHINGTON     </v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">GEORGE         </v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="6"/>
+        <v>DES MOINES</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="7"/>
+        <v>IA</v>
+      </c>
+      <c r="AE16" s="5">
+        <f t="shared" si="8"/>
+        <v>741852963</v>
+      </c>
+      <c r="AF16" s="5" t="str" cm="1">
+        <f t="array" ref="AF16">IF(J16="N",_xlfn.SWITCH(G16,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>DIET COKE</v>
+      </c>
+      <c r="AG16" s="5">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AH16" s="23">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="AI16" s="25">
+        <f t="shared" si="11"/>
+        <v>995.5</v>
+      </c>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="1"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G5" s="9"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5"/>
-      <c r="X5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AI5" s="1"/>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17">
+        <v>369852147</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">IF(J17="N",_xlfn.SWITCH(E17,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>449.04</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="18"/>
+        <v>3942.1800000000003</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="19"/>
+        <v>995.5</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="20"/>
+        <v>449.04</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="str">
+        <f>CONCATENATE("TOTAL ERRORS ",COUNTIF(J3:J26,"Y"))</f>
+        <v>TOTAL ERRORS 11</v>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ADAMS          </v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">JOHN           </v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">BRANSON   </v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="7"/>
+        <v>MO</v>
+      </c>
+      <c r="AE17" s="5">
+        <f t="shared" si="8"/>
+        <v>369852147</v>
+      </c>
+      <c r="AF17" s="5" t="str" cm="1">
+        <f t="array" ref="AF17">IF(J17="N",_xlfn.SWITCH(G17,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>MELLO YELLO</v>
+      </c>
+      <c r="AG17" s="5">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="AH17" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="25">
+        <f t="shared" si="11"/>
+        <v>449.04</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK17" s="15">
+        <f>X26</f>
+        <v>775.29000000000008</v>
+      </c>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G6" s="9"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="5"/>
-      <c r="X6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AI6" s="1"/>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18">
+        <v>987654321</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">IF(J18="N",_xlfn.SWITCH(E18,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>168.39000000000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="18"/>
+        <v>3942.1800000000003</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" si="19"/>
+        <v>995.5</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="20"/>
+        <v>449.04</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="21"/>
+        <v>168.39000000000001</v>
+      </c>
+      <c r="X18" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">JEFFERSON      </v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">THOMAS         </v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">CHICAGO   </v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+      <c r="AE18" s="5">
+        <f t="shared" si="8"/>
+        <v>987654321</v>
+      </c>
+      <c r="AF18" s="5" t="str" cm="1">
+        <f t="array" ref="AF18">IF(J18="N",_xlfn.SWITCH(G18,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>CHERRY COKE</v>
+      </c>
+      <c r="AG18" s="5">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AH18" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="25">
+        <f t="shared" si="11"/>
+        <v>168.39000000000001</v>
+      </c>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="1"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G7" s="9"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="5"/>
-      <c r="X7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AI7" s="1"/>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19">
+        <v>123456789</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>19</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">IF(J19="N",_xlfn.SWITCH(E19,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>45.6</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>401.09000000000003</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" si="18"/>
+        <v>3942.1800000000003</v>
+      </c>
+      <c r="U19" s="6">
+        <f t="shared" si="19"/>
+        <v>995.5</v>
+      </c>
+      <c r="V19" s="6">
+        <f t="shared" si="20"/>
+        <v>449.04</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="21"/>
+        <v>168.39000000000001</v>
+      </c>
+      <c r="X19" s="6">
+        <f t="shared" si="22"/>
+        <v>401.09000000000003</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">MADISON        </v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">JAMES          </v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">LANSING   </v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="7"/>
+        <v>MI</v>
+      </c>
+      <c r="AE19" s="5">
+        <f t="shared" si="8"/>
+        <v>123456789</v>
+      </c>
+      <c r="AF19" s="5" t="str" cm="1">
+        <f t="array" ref="AF19">IF(J19="N",_xlfn.SWITCH(G19,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>DIET CHERRY COKE</v>
+      </c>
+      <c r="AG19" s="5">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="AH19" s="23">
+        <f t="shared" si="10"/>
+        <v>45.6</v>
+      </c>
+      <c r="AI19" s="25">
+        <f t="shared" si="11"/>
+        <v>401.09000000000003</v>
+      </c>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="1"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G8" s="9"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="5"/>
-      <c r="X8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AI8" s="1"/>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20">
+        <v>159357456</v>
+      </c>
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">IF(J20="N",_xlfn.SWITCH(E20,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0.05</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>99.550000000000011</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T20" s="6">
+        <f t="shared" si="18"/>
+        <v>3942.1800000000003</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" si="19"/>
+        <v>995.5</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="20"/>
+        <v>449.04</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" si="21"/>
+        <v>267.94000000000005</v>
+      </c>
+      <c r="X20" s="6">
+        <f t="shared" si="22"/>
+        <v>401.09000000000003</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">MONROE         </v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">JAMES          </v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">OMAHA     </v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="7"/>
+        <v>NE</v>
+      </c>
+      <c r="AE20" s="5">
+        <f t="shared" si="8"/>
+        <v>159357456</v>
+      </c>
+      <c r="AF20" s="5" t="str" cm="1">
+        <f t="array" ref="AF20">IF(J20="N",_xlfn.SWITCH(G20,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>SPRITE</v>
+      </c>
+      <c r="AG20" s="5">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AH20" s="23">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AI20" s="25">
+        <f t="shared" si="11"/>
+        <v>99.550000000000011</v>
+      </c>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="1"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I9" s="1"/>
-      <c r="J9" s="5"/>
-      <c r="X9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AI9" s="1"/>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21">
+        <v>456258159</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">IF(J21="N",_xlfn.SWITCH(E21,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0.05</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>199.10000000000002</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" si="18"/>
+        <v>3942.1800000000003</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" si="19"/>
+        <v>1194.5999999999999</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="20"/>
+        <v>449.04</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="21"/>
+        <v>267.94000000000005</v>
+      </c>
+      <c r="X21" s="6">
+        <f t="shared" si="22"/>
+        <v>401.09000000000003</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ADAMS          </v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">JOHN QUINCY    </v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">OTTUMWA   </v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="7"/>
+        <v>IA</v>
+      </c>
+      <c r="AE21" s="5">
+        <f t="shared" si="8"/>
+        <v>456258159</v>
+      </c>
+      <c r="AF21" s="5" t="str" cm="1">
+        <f t="array" ref="AF21">IF(J21="N",_xlfn.SWITCH(G21,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>DIET COKE</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AH21" s="23">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AI21" s="25">
+        <f t="shared" si="11"/>
+        <v>199.10000000000002</v>
+      </c>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="1"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I10" s="1"/>
-      <c r="J10" s="5"/>
-      <c r="X10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AI10" s="1"/>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22">
+        <v>350877169</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">IF(J22="N",_xlfn.SWITCH(E22,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0.05</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>298.65000000000003</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T22" s="6">
+        <f t="shared" si="18"/>
+        <v>4240.83</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="19"/>
+        <v>1194.5999999999999</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="20"/>
+        <v>449.04</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" si="21"/>
+        <v>267.94000000000005</v>
+      </c>
+      <c r="X22" s="6">
+        <f t="shared" si="22"/>
+        <v>401.09000000000003</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">JACKSON        </v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ANDREW         </v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">LINCOLN   </v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="7"/>
+        <v>NE</v>
+      </c>
+      <c r="AE22" s="5">
+        <f t="shared" si="8"/>
+        <v>350877169</v>
+      </c>
+      <c r="AF22" s="5" t="str" cm="1">
+        <f t="array" ref="AF22">IF(J22="N",_xlfn.SWITCH(G22,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>CHERRY COKE</v>
+      </c>
+      <c r="AG22" s="5">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AH22" s="23">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AI22" s="25">
+        <f t="shared" si="11"/>
+        <v>298.65000000000003</v>
+      </c>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="1"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I11" s="1"/>
-      <c r="J11" s="5"/>
-      <c r="X11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AI11" s="1"/>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23">
+        <v>361738016</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">IF(J23="N",_xlfn.SWITCH(E23,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>374.20000000000005</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="18"/>
+        <v>4240.83</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" si="19"/>
+        <v>1194.5999999999999</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="20"/>
+        <v>449.04</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" si="21"/>
+        <v>267.94000000000005</v>
+      </c>
+      <c r="X23" s="6">
+        <f t="shared" si="22"/>
+        <v>775.29000000000008</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">VAN BUREN      </v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">MARTIN         </v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">ST LOUIS  </v>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="7"/>
+        <v>MO</v>
+      </c>
+      <c r="AE23" s="5">
+        <f t="shared" si="8"/>
+        <v>361738016</v>
+      </c>
+      <c r="AF23" s="5" t="str" cm="1">
+        <f t="array" ref="AF23">IF(J23="N",_xlfn.SWITCH(G23,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>SPRITE</v>
+      </c>
+      <c r="AG23" s="5">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AH23" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="25">
+        <f t="shared" si="11"/>
+        <v>374.20000000000005</v>
+      </c>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="1"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I12" s="1"/>
-      <c r="J12" s="5"/>
-      <c r="R12" s="5" t="str" cm="1">
-        <f t="array" ref="R12">_xlfn.SWITCH(E3,"WI","","IA","","IL","","MI","","MO","","NE","","STATES MUST BE IA, IL, MI, MO, NE, OR WI")</f>
-        <v/>
-      </c>
-      <c r="X12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AI12" s="1"/>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>183429731</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">IF(J24="N",_xlfn.SWITCH(E24,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0.05</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>59.730000000000004</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="18"/>
+        <v>4240.83</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="19"/>
+        <v>1194.5999999999999</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="20"/>
+        <v>508.77000000000004</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="21"/>
+        <v>267.94000000000005</v>
+      </c>
+      <c r="X24" s="6">
+        <f t="shared" si="22"/>
+        <v>775.29000000000008</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">HARRISON       </v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">WILLIAM HENRY  </v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">MADISON   </v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="7"/>
+        <v>WI</v>
+      </c>
+      <c r="AE24" s="5">
+        <f t="shared" si="8"/>
+        <v>183429731</v>
+      </c>
+      <c r="AF24" s="5" t="str" cm="1">
+        <f t="array" ref="AF24">IF(J24="N",_xlfn.SWITCH(G24,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>MELLO YELLO</v>
+      </c>
+      <c r="AG24" s="5">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AH24" s="23">
+        <f t="shared" si="10"/>
+        <v>3.6</v>
+      </c>
+      <c r="AI24" s="25">
+        <f t="shared" si="11"/>
+        <v>59.730000000000004</v>
+      </c>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I13" s="1"/>
-      <c r="J13" s="5"/>
-      <c r="X13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AI13" s="1"/>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25">
+        <v>617239925</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">IF(J25="N",_xlfn.SWITCH(E25,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>126.66000000000001</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="18"/>
+        <v>4367.49</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="19"/>
+        <v>1194.5999999999999</v>
+      </c>
+      <c r="V25" s="6">
+        <f t="shared" si="20"/>
+        <v>508.77000000000004</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" si="21"/>
+        <v>267.94000000000005</v>
+      </c>
+      <c r="X25" s="6">
+        <f t="shared" si="22"/>
+        <v>775.29000000000008</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">TYLER          </v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">JOHN           </v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">DETROIT   </v>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="7"/>
+        <v>MI</v>
+      </c>
+      <c r="AE25" s="5">
+        <f t="shared" si="8"/>
+        <v>617239925</v>
+      </c>
+      <c r="AF25" s="5" t="str" cm="1">
+        <f t="array" ref="AF25">IF(J25="N",_xlfn.SWITCH(G25,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>DIET CHERRY COKE</v>
+      </c>
+      <c r="AG25" s="5">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AH25" s="23">
+        <f t="shared" si="10"/>
+        <v>14.4</v>
+      </c>
+      <c r="AI25" s="25">
+        <f t="shared" si="11"/>
+        <v>126.66000000000001</v>
+      </c>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I14" s="1"/>
-      <c r="J14" s="5"/>
-      <c r="X14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AI14" s="1"/>
+    <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7">
+        <v>715434587</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+      <c r="H26" s="8">
+        <v>9</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="K26" s="7" cm="1">
+        <f t="array" ref="K26">IF(J26="N",_xlfn.SWITCH(E26,"IA",0.05,"NE",0.05,"WI",0.05,"MI",0.1,"IL",0,"MO",0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="3"/>
+        <v>168.39000000000001</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="12"/>
+        <v>198</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="T26" s="11">
+        <f t="shared" si="18"/>
+        <v>4367.49</v>
+      </c>
+      <c r="U26" s="11">
+        <f t="shared" si="19"/>
+        <v>1362.99</v>
+      </c>
+      <c r="V26" s="11">
+        <f t="shared" si="20"/>
+        <v>508.77000000000004</v>
+      </c>
+      <c r="W26" s="11">
+        <f t="shared" si="21"/>
+        <v>267.94000000000005</v>
+      </c>
+      <c r="X26" s="11">
+        <f t="shared" si="22"/>
+        <v>775.29000000000008</v>
+      </c>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">POLK           </v>
+      </c>
+      <c r="AB26" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">JAMES KNOX     </v>
+      </c>
+      <c r="AC26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">PEORIA    </v>
+      </c>
+      <c r="AD26" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>IL</v>
+      </c>
+      <c r="AE26" s="13">
+        <f t="shared" si="8"/>
+        <v>715434587</v>
+      </c>
+      <c r="AF26" s="5" t="str" cm="1">
+        <f t="array" ref="AF26">IF(J26="N",_xlfn.SWITCH(G26,1,"COKE",2,"DIET COKE",3,"MELLO YELLO",4,"CHERRY COKE",5,"DIET CHERRY COKE",6,"SPRITE"),"")</f>
+        <v>DIET COKE</v>
+      </c>
+      <c r="AG26" s="13">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AH26" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="26">
+        <f t="shared" si="11"/>
+        <v>168.39000000000001</v>
+      </c>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="9"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I15" s="1"/>
-      <c r="J15" s="5"/>
-      <c r="X15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AI15" s="1"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I16" s="1"/>
-      <c r="J16" s="5"/>
-      <c r="X16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AI16" s="1"/>
-    </row>
-    <row r="17" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I17" s="1"/>
-      <c r="J17" s="5"/>
-      <c r="X17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I18" s="1"/>
-      <c r="J18" s="5"/>
-      <c r="X18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AI18" s="1"/>
-    </row>
-    <row r="19" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I19" s="1"/>
-      <c r="J19" s="5"/>
-      <c r="X19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AI19" s="1"/>
-    </row>
-    <row r="20" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
-      <c r="J20" s="5"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="4"/>
-      <c r="AI20" s="1"/>
-    </row>
-    <row r="21" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="Y21" s="5"/>
+    <row r="27" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AF27" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:X1"/>
     <mergeCell ref="AA1:AI1"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
